--- a/Simulation_Result/Resultados_Simulacao_4.xlsx
+++ b/Simulation_Result/Resultados_Simulacao_4.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,13 +483,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="C2" t="n">
-        <v>728723.199</v>
+        <v>621558.022</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -503,201 +503,181 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="C3" t="n">
-        <v>750156.2340000001</v>
+        <v>642991.058</v>
       </c>
       <c r="D3" t="n">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="E3" t="n">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.666667</v>
+        <v>71.666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="C4" t="n">
-        <v>771589.269</v>
+        <v>664424.093</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E4" t="n">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="F4" t="n">
-        <v>1.666667</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="C5" t="n">
-        <v>793022.304</v>
+        <v>685857.128</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="F5" t="n">
-        <v>1.666667</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="C6" t="n">
-        <v>814455.34</v>
+        <v>707290.1629999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F6" t="n">
-        <v>1.666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="C7" t="n">
-        <v>835888.375</v>
+        <v>728723.199</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F7" t="n">
-        <v>1.666667</v>
+        <v>3.333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="C8" t="n">
-        <v>857321.41</v>
+        <v>750156.2340000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F8" t="n">
-        <v>1.666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="C9" t="n">
-        <v>878754.4449999999</v>
+        <v>771589.269</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F9" t="n">
-        <v>1.666667</v>
+        <v>1.333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="C10" t="n">
-        <v>900187.481</v>
+        <v>793022.304</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F10" t="n">
-        <v>1.333333</v>
+        <v>0.333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="C11" t="n">
-        <v>921620.5159999999</v>
+        <v>814455.34</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F11" t="n">
-        <v>0.333333</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>44</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>943053.551</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>300</v>
-      </c>
-      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -744,10 +724,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.73166667</v>
+        <v>1.53583333</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.74166774</v>
+        <v>1.54015056</v>
       </c>
     </row>
     <row r="3">
@@ -757,10 +737,10 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.0026477146</v>
+        <v>0.00418826644</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.00237609188</v>
+        <v>0.00342272793</v>
       </c>
     </row>
     <row r="4">
@@ -770,10 +750,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.0514559482</v>
+        <v>0.06471681730000001</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0487451729</v>
+        <v>0.0585040847</v>
       </c>
     </row>
     <row r="6">
@@ -835,34 +815,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1.756666666666667</v>
+        <v>1.560833333333333</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.002638888888888889</v>
+        <v>0.004174305555555557</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.05137011669140814</v>
+        <v>0.06460886592067343</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>300</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0.02924295067822094</v>
+        <v>0.04139382760534336</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>7.624611704414613</v>
+        <v>2.290150249766049</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>56.51406980609395</v>
+        <v>7.459861932821497</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>0.07470329036482526</v>
+        <v>0.7865127172867271</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -889,7 +869,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.73166667</v>
+        <v>1.53583333</v>
       </c>
     </row>
     <row r="11">
@@ -899,7 +879,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.74166774</v>
+        <v>1.54015056</v>
       </c>
     </row>
     <row r="12">
@@ -909,7 +889,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0026477146</v>
+        <v>0.00418826644</v>
       </c>
     </row>
     <row r="13">
@@ -919,7 +899,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00237609188</v>
+        <v>0.00342272793</v>
       </c>
     </row>
     <row r="14">
@@ -929,7 +909,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0514559482</v>
+        <v>0.06471681730000001</v>
       </c>
     </row>
     <row r="15">
@@ -939,7 +919,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0487451729</v>
+        <v>0.0585040847</v>
       </c>
     </row>
     <row r="16">
@@ -949,7 +929,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.756666666666667</v>
+        <v>1.560833333333333</v>
       </c>
     </row>
     <row r="17">
@@ -959,7 +939,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002638888888888889</v>
+        <v>0.004174305555555557</v>
       </c>
     </row>
     <row r="18">
@@ -969,7 +949,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05137011669140814</v>
+        <v>0.06460886592067343</v>
       </c>
     </row>
     <row r="19">
@@ -979,7 +959,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="20">
@@ -989,7 +969,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="21">
@@ -1009,7 +989,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02924295067822094</v>
+        <v>0.04139382760534336</v>
       </c>
     </row>
     <row r="23">
@@ -1019,7 +999,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.624611704414613</v>
+        <v>2.290150249766049</v>
       </c>
     </row>
     <row r="24">
@@ -1029,7 +1009,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.51406980609395</v>
+        <v>7.459861932821497</v>
       </c>
     </row>
     <row r="25">
@@ -1039,7 +1019,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07470329036482526</v>
+        <v>0.7865127172867271</v>
       </c>
     </row>
     <row r="26">
